--- a/Конфигурирование/Настройки в Excel/Пример.xlsx
+++ b/Конфигурирование/Настройки в Excel/Пример.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA1DCF2-BAF3-4D1B-A28C-BAEB80793110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F330F2C1-3BD4-4320-A78B-6E171D5F0DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Параметр 1</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>А это значение 2го параметра.</t>
+  </si>
+  <si>
+    <t>Список</t>
   </si>
 </sst>
 </file>
@@ -425,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C3E0FF-23B5-40F7-867D-ECDB8FD1C8C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -454,4 +458,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834C1CD3-878F-46F2-9E8A-2D6FBC95F09A}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>